--- a/sample/exp0_vs_exp1/death/hr_sens.xlsx
+++ b/sample/exp0_vs_exp1/death/hr_sens.xlsx
@@ -391,13 +391,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.9492052329152705</v>
+        <v>0.9492052329152707</v>
       </c>
       <c r="B2">
-        <v>0.3358072961763174</v>
+        <v>0.3358072961763175</v>
       </c>
       <c r="C2">
-        <v>2.683058362498065</v>
+        <v>2.683058362498066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
